--- a/biology/Zoologie/Catageus/Catageus.xlsx
+++ b/biology/Zoologie/Catageus/Catageus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catageus est un genre d'amblypyges de la famille des Charontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Miranda, Giupponi, Prendini et Scharff, 2018[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Miranda, Giupponi, Prendini et Scharff, 2018 :
 Catageus berkeleyi (Gravely, 1915)
 Catageus brevispina (Weygoldt, 2002)
 Catageus cavernicola (Thorell, 1889)
@@ -553,7 +569,7 @@
 Catageus longispina (Gravely, 1915)
 Catageus orientalis (Seiter &amp; Wolf, 2017)
 Catageus sunda (Rahmadi &amp; Harvey, 2008)
-Catageus moultoni a été placée dans le genre Sarax par Miranda, Giupponi, Prendini et Scharff en 2021[3].
+Catageus moultoni a été placée dans le genre Sarax par Miranda, Giupponi, Prendini et Scharff en 2021.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Stygophrynus a été placé en synonymie avec Catageus dans les Charontidae par Miranda, Giupponi, Prendini et Scharff en 2018[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Stygophrynus a été placé en synonymie avec Catageus dans les Charontidae par Miranda, Giupponi, Prendini et Scharff en 2018.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1889 : « XXI. Aracnidi Artrogastri Birmani raccolti da L. Fea nel 1885–1887. Viaggio di Leonardo Fea in Birmani e Regione Vicine. » Annali del Museo Civico di Storia Naturale di Genova, vol. 2, no 7, p. 521–729 (texte intégral).</t>
         </is>
